--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail13 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4181,28 +4181,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>1.463540278608168e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1568048088456168</v>
+        <v>7.004163854081624e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.507392971866155</v>
+        <v>2.330246557610501e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.004163854081624e-07</v>
+        <v>0.02239567456967483</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.330246557610501e-06</v>
+        <v>0.2593067061223273</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02239567456967483</v>
+        <v>0.0676285183502297</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2593067061223273</v>
+        <v>1.920511953530405</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0676285183502297</v>
+        <v>2.242804184030213</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.957872735610367</v>
+        <v>4.928583918050007</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.242804184030213</v>
+        <v>5.364182629026954e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.928583918050007</v>
+        <v>2716969550.107173</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.364182629026954e-17</v>
+        <v>4.417057513741615e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2716969550.107173</v>
+        <v>395.9798600174062</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.417057513741615e-08</v>
+        <v>7.412441536522377e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>395.9798600174062</v>
+        <v>13.97357133525658</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>7.412441536522377e-05</v>
+        <v>1.044918654081015</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.97357133525658</v>
+        <v>0.01447358492454077</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.044918654081015</v>
+        <v>5.721553139138242</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01447358492454077</v>
+        <v>0.954496167390101</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.721553139138242</v>
+        <v>0.9336185770703941</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.954496167390101</v>
+        <v>127</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9336185770703941</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>7.736199176094489</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>1.424871642995994e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.01559597761296855</v>
+        <v>5.271729503454392e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8257857479349924</v>
+        <v>2.331956977390222e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.271729503454392e-07</v>
+        <v>0.002001222527224754</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.331956977390222e-06</v>
+        <v>0.2160940472038095</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.002001222527224754</v>
+        <v>0.04662553462576709</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2160940472038095</v>
+        <v>1.922886899264695</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04662553462576709</v>
+        <v>2.274676014552416</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.959734946954695</v>
+        <v>4.668017565598621</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.274676014552416</v>
+        <v>5.771958643780316e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.668017565598621</v>
+        <v>2541082371.406654</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.771958643780316e-17</v>
+        <v>4.72425098613615e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2541082371.406654</v>
+        <v>372.7011195544525</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.72425098613615e-08</v>
+        <v>0.0001205784209853262</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>372.7011195544525</v>
+        <v>13.27195601575703</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001205784209853262</v>
+        <v>1.048932802043358</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.27195601575703</v>
+        <v>0.02123926383641361</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.048932802043358</v>
+        <v>4.734739529411876</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02123926383641361</v>
+        <v>0.9564293967258003</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.734739529411876</v>
+        <v>0.9128394803323706</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9564293967258003</v>
+        <v>127</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9128394803323706</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.249517906584899</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>1.439482598366769e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.04385714436108696</v>
+        <v>5.145124927498773e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8107285824710893</v>
+        <v>2.331015303684272e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.145124927498773e-07</v>
+        <v>-0.01430364918808458</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.331015303684272e-06</v>
+        <v>0.1744985739214756</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01430364918808458</v>
+        <v>0.03060702296542276</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1744985739214756</v>
+        <v>1.920318285926864</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03060702296542276</v>
+        <v>2.188578755473228</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.956327616482812</v>
+        <v>4.551587705830325</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.188578755473228</v>
+        <v>7.536542074783052e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.551587705830325</v>
+        <v>1959884752.766994</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.536542074783052e-17</v>
+        <v>6.137994963258101e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1959884752.766994</v>
+        <v>289.4897535735378</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.137994963258101e-08</v>
+        <v>0.000160770767610018</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>289.4897535735378</v>
+        <v>13.30827127322304</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000160770767610018</v>
+        <v>1.031971701669568</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.30827127322304</v>
+        <v>0.02847412420144285</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.031971701669568</v>
+        <v>3.951079198999797</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02847412420144285</v>
+        <v>0.9569930050644648</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.951079198999797</v>
+        <v>0.958868759981661</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9569930050644648</v>
+        <v>127</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.958868759981661</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.60969996566853</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>1.475446098472517e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.07411379125478107</v>
+        <v>5.153933458944131e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8472505974609206</v>
+        <v>2.327965745242198e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.153933458944131e-07</v>
+        <v>-0.0269121854544043</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.327965745242198e-06</v>
+        <v>0.1360175875112504</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0269121854544043</v>
+        <v>0.01919150602105279</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1360175875112504</v>
+        <v>1.920315523515466</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01919150602105279</v>
+        <v>2.185399795191547</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.949870648790579</v>
+        <v>4.332594186022238</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.185399795191547</v>
+        <v>9.825698598871503e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.332594186022238</v>
+        <v>1514839118.15837</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.825698598871503e-17</v>
+        <v>7.923816215893944e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1514839118.15837</v>
+        <v>225.4739956816083</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.923816215893944e-08</v>
+        <v>0.0001857691266567038</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>225.4739956816083</v>
+        <v>13.77547353398343</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001857691266567038</v>
+        <v>0.9920647639886524</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.77547353398343</v>
+        <v>0.03525223144871924</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9920647639886524</v>
+        <v>3.472336774527161</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03525223144871924</v>
+        <v>0.958498825531315</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.472336774527161</v>
+        <v>1.06681985252742</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.958498825531315</v>
+        <v>113</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.06681985252742</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.824591026321385</v>
       </c>
     </row>
@@ -5030,7 +4994,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.500913307257924</v>
+        <v>1.486777408755833</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.206781555164184</v>
@@ -5119,7 +5083,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.55249743680474</v>
+        <v>1.53269947201043</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.181138655412451</v>
@@ -5208,7 +5172,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599011407934503</v>
+        <v>1.57230625812181</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.166640244538599</v>
@@ -5297,7 +5261,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.605774315146866</v>
+        <v>1.576742548781441</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.199135268748678</v>
@@ -5386,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.604476777747546</v>
+        <v>1.576605295982741</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.245189221283562</v>
@@ -5475,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661215331202386</v>
+        <v>1.627717867037076</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.56862312950226</v>
@@ -5564,7 +5528,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.67281914708362</v>
+        <v>1.636102187397802</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.76739058808572</v>
@@ -5653,7 +5617,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658491375434421</v>
+        <v>1.626519423342573</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.318351093665558</v>
@@ -5742,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.656623003868816</v>
+        <v>1.623631423795269</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.434660056995891</v>
@@ -5831,7 +5795,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666000887846615</v>
+        <v>1.631739056362192</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.298061929761659</v>
@@ -5920,7 +5884,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670235516496881</v>
+        <v>1.640084983957505</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.331183845158415</v>
@@ -6009,7 +5973,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.675153567981302</v>
+        <v>1.642118696220005</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.25318294733703</v>
@@ -6098,7 +6062,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.671016637433671</v>
+        <v>1.641688460617766</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.350900867303861</v>
@@ -6187,7 +6151,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676754786112571</v>
+        <v>1.649092101370933</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.349328869855636</v>
@@ -6276,7 +6240,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.702442168549936</v>
+        <v>1.671884757695383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.289863741086801</v>
@@ -6365,7 +6329,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.699626320189354</v>
+        <v>1.669971069839188</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.308590054829454</v>
@@ -6454,7 +6418,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.697633304192054</v>
+        <v>1.667740126642189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.262227086463626</v>
@@ -6543,7 +6507,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.696634587640056</v>
+        <v>1.668402572416995</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.303780010956197</v>
@@ -6632,7 +6596,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.710189785324078</v>
+        <v>1.684080515188828</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.27388195239441</v>
@@ -6721,7 +6685,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.702647545446151</v>
+        <v>1.679661360324753</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.381979466194088</v>
@@ -6810,7 +6774,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.662038827828634</v>
+        <v>1.643704563008071</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.335635409124836</v>
@@ -6899,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.649712562822595</v>
+        <v>1.632249924512816</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.306822588439361</v>
@@ -6988,7 +6952,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.659482078119174</v>
+        <v>1.644718108116069</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.545379648346759</v>
@@ -7077,7 +7041,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622792532220051</v>
+        <v>1.614369069536105</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.549675907606129</v>
@@ -7166,7 +7130,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.615624591879744</v>
+        <v>1.605291995755045</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.563932425810641</v>
@@ -7255,7 +7219,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608909225954591</v>
+        <v>1.593512009757323</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.515038444078509</v>
@@ -7344,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.582444099294901</v>
+        <v>1.574797152784863</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.521125208816092</v>
@@ -7433,7 +7397,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578990277928129</v>
+        <v>1.572665716163621</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.630510989558774</v>
@@ -7522,7 +7486,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591710107435124</v>
+        <v>1.583357005723941</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.543029078299698</v>
@@ -7611,7 +7575,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.599612866683997</v>
+        <v>1.590576076388842</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.61013312968133</v>
@@ -7700,7 +7664,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.609714675781574</v>
+        <v>1.596104494621787</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.608863292455415</v>
@@ -7789,7 +7753,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.621794012783232</v>
+        <v>1.609568664227243</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.688571651282539</v>
@@ -7878,7 +7842,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.640993306215404</v>
+        <v>1.629035379777432</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.831604000353914</v>
@@ -7967,7 +7931,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643129728087895</v>
+        <v>1.628743037517833</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.686755013056626</v>
@@ -8056,7 +8020,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.656361648571899</v>
+        <v>1.639703936529407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.809127255975355</v>
@@ -8145,7 +8109,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.677193655234054</v>
+        <v>1.661186529373953</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.032922666151701</v>
@@ -8234,7 +8198,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.699943029318652</v>
+        <v>1.685728307392331</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.073199473689666</v>
@@ -8323,7 +8287,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.730681147057891</v>
+        <v>1.720268316473739</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.058087922236034</v>
@@ -8412,7 +8376,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.774532633812669</v>
+        <v>1.753569373309611</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.284261311004517</v>
@@ -8501,7 +8465,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.786003363421886</v>
+        <v>1.767181713790929</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.143643614208957</v>
@@ -8590,7 +8554,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.81618226871195</v>
+        <v>1.785736405460555</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.324015358752889</v>
@@ -8679,7 +8643,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.82441494405427</v>
+        <v>1.792506727813837</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.24566627963994</v>
@@ -8768,7 +8732,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.831479260500155</v>
+        <v>1.797840575335342</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.047982588632082</v>
@@ -8857,7 +8821,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.828664961756025</v>
+        <v>1.794792361238652</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.073629996973043</v>
@@ -8946,7 +8910,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.832934866170296</v>
+        <v>1.802688964803276</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.610134329799731</v>
@@ -9035,7 +8999,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.840222206819867</v>
+        <v>1.816410570452565</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.00749109966598</v>
@@ -9124,7 +9088,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.835531635092892</v>
+        <v>1.813454552780181</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.093955007919366</v>
@@ -9213,7 +9177,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.827902292624588</v>
+        <v>1.808131032321741</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.370397950764207</v>
@@ -9302,7 +9266,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.831913777473649</v>
+        <v>1.815319806070249</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.292560395254374</v>
@@ -9588,7 +9552,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.492558167565929</v>
+        <v>1.506398312254787</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.343928972600058</v>
@@ -9677,7 +9641,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518503437188696</v>
+        <v>1.530924805769619</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.175479539114876</v>
@@ -9766,7 +9730,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.54618645475648</v>
+        <v>1.561663651483878</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.090973797954969</v>
@@ -9855,7 +9819,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.576651105973626</v>
+        <v>1.592428260273335</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.081797797544623</v>
@@ -9944,7 +9908,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.599097034088441</v>
+        <v>1.610167661762085</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.370281745129753</v>
@@ -10033,7 +9997,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.657245560571455</v>
+        <v>1.657572099160265</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.01052518845534</v>
@@ -10122,7 +10086,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667745743449251</v>
+        <v>1.664245519484512</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.791456598455392</v>
@@ -10211,7 +10175,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.655584242113344</v>
+        <v>1.652967880337985</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.941434762686935</v>
@@ -10300,7 +10264,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.661534639070953</v>
+        <v>1.661814394433917</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.650876168938026</v>
@@ -10389,7 +10353,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.669050665848865</v>
+        <v>1.669137605934236</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.939747920972403</v>
@@ -10478,7 +10442,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.675034950564061</v>
+        <v>1.666869513308118</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.943333435315983</v>
@@ -10567,7 +10531,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668032220938127</v>
+        <v>1.659066204251872</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.802664955695073</v>
@@ -10656,7 +10620,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669016864131961</v>
+        <v>1.659300871095337</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.931566778134023</v>
@@ -10745,7 +10709,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.678680623719095</v>
+        <v>1.663700141214105</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.562258697976683</v>
@@ -10834,7 +10798,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.70430139262192</v>
+        <v>1.687427040870964</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.237716396779532</v>
@@ -10923,7 +10887,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720583901596055</v>
+        <v>1.705350848755729</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.006601491140543</v>
@@ -11012,7 +10976,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.692261311720706</v>
+        <v>1.683536448384259</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.629291685534346</v>
@@ -11101,7 +11065,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.694801103540133</v>
+        <v>1.68247507458203</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.773423080752669</v>
@@ -11190,7 +11154,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.695630936300296</v>
+        <v>1.683662330372897</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.753547125397153</v>
@@ -11279,7 +11243,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682269772174066</v>
+        <v>1.668295029846284</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.790724658811766</v>
@@ -11368,7 +11332,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.660073876651443</v>
+        <v>1.6511054810757</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.818716691155476</v>
@@ -11457,7 +11421,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.659244854489804</v>
+        <v>1.650192380708621</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.853959877208443</v>
@@ -11546,7 +11510,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654916097995927</v>
+        <v>1.645967166991888</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.872032351126795</v>
@@ -11635,7 +11599,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642163140440957</v>
+        <v>1.631378355971328</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.922988756597908</v>
@@ -11724,7 +11688,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642799520204809</v>
+        <v>1.62825682762727</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.911658581656423</v>
@@ -11813,7 +11777,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639737023730981</v>
+        <v>1.630847337030816</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.847932049703232</v>
@@ -11902,7 +11866,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.640758400451185</v>
+        <v>1.629409224888568</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.839976297182414</v>
@@ -11991,7 +11955,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630645647864586</v>
+        <v>1.617077271458784</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.968115743796583</v>
@@ -12080,7 +12044,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638917408983887</v>
+        <v>1.625036881992213</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.864050777487618</v>
@@ -12169,7 +12133,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.624508669646496</v>
+        <v>1.61250757675723</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.977161597473982</v>
@@ -12258,7 +12222,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.617125351091976</v>
+        <v>1.602891576036321</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.947473252912544</v>
@@ -12347,7 +12311,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644151490035176</v>
+        <v>1.628627057757024</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.013573889596391</v>
@@ -12436,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.646681002054614</v>
+        <v>1.629853166595266</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.879682410215277</v>
@@ -12525,7 +12489,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651334058305636</v>
+        <v>1.633231877508213</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.108284999619066</v>
@@ -12614,7 +12578,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657237735803693</v>
+        <v>1.640292692770982</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.98743078068245</v>
@@ -12703,7 +12667,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.670752139397235</v>
+        <v>1.655090309762522</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.987113996257514</v>
@@ -12792,7 +12756,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.663890780329122</v>
+        <v>1.650314179068367</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.825721500674161</v>
@@ -12881,7 +12845,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.669066129932773</v>
+        <v>1.653186978513177</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.915615151477612</v>
@@ -12970,7 +12934,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.68486928127679</v>
+        <v>1.670307253208156</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.063293348873398</v>
@@ -13059,7 +13023,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.676299227912828</v>
+        <v>1.662126053004039</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.139250939981935</v>
@@ -13148,7 +13112,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672666996559238</v>
+        <v>1.654790525636912</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.219681323639122</v>
@@ -13237,7 +13201,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660245400269758</v>
+        <v>1.650650615935077</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.031832299907878</v>
@@ -13326,7 +13290,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.671071345873107</v>
+        <v>1.662458488890013</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.067093881531753</v>
@@ -13415,7 +13379,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.669791349633448</v>
+        <v>1.659123247435938</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.88707082026507</v>
@@ -13504,7 +13468,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.685173701008467</v>
+        <v>1.672637381859624</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.05459275597762</v>
@@ -13593,7 +13557,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689048832610004</v>
+        <v>1.673359357098691</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.065430426444268</v>
@@ -13682,7 +13646,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.680980010087131</v>
+        <v>1.66438869030737</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.034747058761281</v>
@@ -13771,7 +13735,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679679745656892</v>
+        <v>1.667012039251357</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.087280409076918</v>
@@ -13860,7 +13824,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6790422871891</v>
+        <v>1.665324211947193</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.932609061723573</v>
@@ -14146,7 +14110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550778809303308</v>
+        <v>1.530357220483299</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.825907269775155</v>
@@ -14235,7 +14199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563140025438556</v>
+        <v>1.540677895034316</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.501628834205626</v>
@@ -14324,7 +14288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.573770029713507</v>
+        <v>1.550981855433952</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.889337578473617</v>
@@ -14413,7 +14377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.57626737753362</v>
+        <v>1.551788065125802</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.806902008824684</v>
@@ -14502,7 +14466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.578136586943393</v>
+        <v>1.55293705131368</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.717061108079793</v>
@@ -14591,7 +14555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.598003740898137</v>
+        <v>1.573516423809056</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.208680495443748</v>
@@ -14680,7 +14644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609021898450944</v>
+        <v>1.580982409139761</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.016593714393762</v>
@@ -14769,7 +14733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.587187251367778</v>
+        <v>1.560923583156122</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.207587901183632</v>
@@ -14858,7 +14822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567438769092023</v>
+        <v>1.542567934730107</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.211102288132129</v>
@@ -14947,7 +14911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56930210822176</v>
+        <v>1.541099984243243</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.146722683311772</v>
@@ -15036,7 +15000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567244491041622</v>
+        <v>1.542408223231164</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.174256286238555</v>
@@ -15125,7 +15089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.576549765924645</v>
+        <v>1.547147391214379</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.15932664802231</v>
@@ -15214,7 +15178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.584777893614264</v>
+        <v>1.560723067274041</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.169948821061726</v>
@@ -15303,7 +15267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.58346158016063</v>
+        <v>1.559269229691655</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.189128941653229</v>
@@ -15392,7 +15356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580722544357144</v>
+        <v>1.554350592362853</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.163115955739343</v>
@@ -15481,7 +15445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.577949316548561</v>
+        <v>1.550799502128646</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.178804802284026</v>
@@ -15570,7 +15534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.584931208102801</v>
+        <v>1.551366963012249</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.12087419589254</v>
@@ -15659,7 +15623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.605970789839003</v>
+        <v>1.564160655175508</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.113065588075005</v>
@@ -15748,7 +15712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.61290651088871</v>
+        <v>1.570406326797661</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.174505690595824</v>
@@ -15837,7 +15801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602366461463082</v>
+        <v>1.566543709567913</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.229236546315015</v>
@@ -15926,7 +15890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590373414688025</v>
+        <v>1.55269595403007</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.268148455519232</v>
@@ -16015,7 +15979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571419577591477</v>
+        <v>1.539377383223494</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.197086149407961</v>
@@ -16104,7 +16068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588055593394002</v>
+        <v>1.557855732917119</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.881448011295119</v>
@@ -16193,7 +16157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.585165790667865</v>
+        <v>1.560672555545894</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.098766131177605</v>
@@ -16282,7 +16246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.589144850644889</v>
+        <v>1.566935561433039</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.901817955609204</v>
@@ -16371,7 +16335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581137382685194</v>
+        <v>1.556455150736562</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.232483782005002</v>
@@ -16460,7 +16424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.555141093474141</v>
+        <v>1.54344703278529</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.977205638518417</v>
@@ -16549,7 +16513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547488919595471</v>
+        <v>1.532805766086412</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.935107106494729</v>
@@ -16638,7 +16602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.550405400614328</v>
+        <v>1.537188636899728</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.672997900970606</v>
@@ -16727,7 +16691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56071321031386</v>
+        <v>1.547272001879413</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.828804286995594</v>
@@ -16816,7 +16780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56393079030303</v>
+        <v>1.546434765774864</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.009511762806985</v>
@@ -16905,7 +16869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.573185390171435</v>
+        <v>1.562051331299025</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.987839308900846</v>
@@ -16994,7 +16958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56411583227815</v>
+        <v>1.563662684332971</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.066423037774728</v>
@@ -17083,7 +17047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55903121478304</v>
+        <v>1.559057342346767</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.719553404268495</v>
@@ -17172,7 +17136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.558222265477987</v>
+        <v>1.555312330523188</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.836254529325005</v>
@@ -17261,7 +17225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.555250388215054</v>
+        <v>1.554423124980738</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.7985536676739</v>
@@ -17350,7 +17314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576048161960057</v>
+        <v>1.571317496764193</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.987039906225238</v>
@@ -17439,7 +17403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591523464321774</v>
+        <v>1.580414820579409</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.825089715152923</v>
@@ -17528,7 +17492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607936956870073</v>
+        <v>1.592221192799675</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.09695262192956</v>
@@ -17617,7 +17581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.604188321377539</v>
+        <v>1.586245356078247</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.133826304602402</v>
@@ -17706,7 +17670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.621830949511697</v>
+        <v>1.601730330204401</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.8914250085816</v>
@@ -17795,7 +17759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.639606669386847</v>
+        <v>1.61575416002478</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.049237066969456</v>
@@ -17884,7 +17848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644149428193229</v>
+        <v>1.615999942178847</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.071483917731856</v>
@@ -17973,7 +17937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.649106445229508</v>
+        <v>1.618998339085638</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.749958006801964</v>
@@ -18062,7 +18026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.645095433702269</v>
+        <v>1.615836886050209</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.98639021353746</v>
@@ -18151,7 +18115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63950325112375</v>
+        <v>1.613839533995453</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.936946348717252</v>
@@ -18240,7 +18204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629335724547016</v>
+        <v>1.606488219401338</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.223063318139005</v>
@@ -18329,7 +18293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636941334337138</v>
+        <v>1.605519896089559</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.034826858481003</v>
@@ -18418,7 +18382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.634603035130908</v>
+        <v>1.598164690018465</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.272775408068185</v>
@@ -18704,7 +18668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.46813758970391</v>
+        <v>1.4733780097636</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.081618250732069</v>
@@ -18793,7 +18757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452182753623211</v>
+        <v>1.454278486723964</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.128411416276602</v>
@@ -18882,7 +18846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.417186641631856</v>
+        <v>1.426547132483406</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.080946633451545</v>
@@ -18971,7 +18935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.424145074634755</v>
+        <v>1.433335167571806</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.031520142402934</v>
@@ -19060,7 +19024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.480817020279473</v>
+        <v>1.488549694246243</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.936262395045271</v>
@@ -19149,7 +19113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491845563909599</v>
+        <v>1.497357616866729</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.040814198160705</v>
@@ -19238,7 +19202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.487473183942448</v>
+        <v>1.49561676568247</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.087124384904868</v>
@@ -19327,7 +19291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.465305522541159</v>
+        <v>1.472528115860949</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.077999891779316</v>
@@ -19416,7 +19380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.417440051553786</v>
+        <v>1.429283310169335</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.025095291603603</v>
@@ -19505,7 +19469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.391225305975402</v>
+        <v>1.40001026735136</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.995248705330584</v>
@@ -19594,7 +19558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.395966826010115</v>
+        <v>1.407665219915928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.022533811480064</v>
@@ -19683,7 +19647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.379001802351597</v>
+        <v>1.388953326471672</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.022163538205677</v>
@@ -19772,7 +19736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.370116000101885</v>
+        <v>1.381128147959243</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.108889014817452</v>
@@ -19861,7 +19825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.375389652936288</v>
+        <v>1.385402263885944</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.165757684334946</v>
@@ -19950,7 +19914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.382316750957021</v>
+        <v>1.390044632071477</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.023211495277363</v>
@@ -20039,7 +20003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.391405267450838</v>
+        <v>1.398438155647895</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.094320534758719</v>
@@ -20128,7 +20092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.415707704390685</v>
+        <v>1.417065330459204</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.911416436427613</v>
@@ -20217,7 +20181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.436722683928894</v>
+        <v>1.442723172661421</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.091991077074955</v>
@@ -20306,7 +20270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.435115196238885</v>
+        <v>1.441822530310306</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.031042371532163</v>
@@ -20395,7 +20359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.431331381349923</v>
+        <v>1.438466701753508</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.063214388827663</v>
@@ -20484,7 +20448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.393078389009293</v>
+        <v>1.395053515116125</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.059282530684348</v>
@@ -20573,7 +20537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.385810826043109</v>
+        <v>1.391930092949102</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.052372409771491</v>
@@ -20662,7 +20626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.39776638160585</v>
+        <v>1.404850092024116</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.065481232266003</v>
@@ -20751,7 +20715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.443872189479122</v>
+        <v>1.448347022268396</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.227555858479489</v>
@@ -20840,7 +20804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.495037889459782</v>
+        <v>1.500861751476226</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.086780613656566</v>
@@ -20929,7 +20893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.49735849425612</v>
+        <v>1.501613453702415</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.160985383316601</v>
@@ -21018,7 +20982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.478165994377976</v>
+        <v>1.481198339599289</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.166922886896546</v>
@@ -21107,7 +21071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.502497181962311</v>
+        <v>1.50371854378952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.191088181560422</v>
@@ -21196,7 +21160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.473105670028938</v>
+        <v>1.473574248243926</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.135465545991555</v>
@@ -21285,7 +21249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.455581217930028</v>
+        <v>1.461727557530003</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.123668688886801</v>
@@ -21374,7 +21338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.459678435519697</v>
+        <v>1.464069375359753</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.05045798073856</v>
@@ -21463,7 +21427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.465554587252897</v>
+        <v>1.470618836592822</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.138647297754932</v>
@@ -21552,7 +21516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.466026969178981</v>
+        <v>1.472057835213576</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.177367654763693</v>
@@ -21641,7 +21605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.467002431271327</v>
+        <v>1.468205043287556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.103332029014712</v>
@@ -21730,7 +21694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.475623490329432</v>
+        <v>1.476496749335341</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.18421916417627</v>
@@ -21819,7 +21783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524832656071887</v>
+        <v>1.52169212187919</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.136245805712972</v>
@@ -21908,7 +21872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.49760636556642</v>
+        <v>1.495869697504704</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.182388677022385</v>
@@ -21997,7 +21961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.509429645914232</v>
+        <v>1.508134502832521</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.265406426714358</v>
@@ -22086,7 +22050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.519355450651569</v>
+        <v>1.514787750112831</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.209990752046228</v>
@@ -22175,7 +22139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.51274427949128</v>
+        <v>1.508252788710814</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.217599910156354</v>
@@ -22264,7 +22228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.513544463763735</v>
+        <v>1.508769688695158</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.261419574020967</v>
@@ -22353,7 +22317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.54795736575766</v>
+        <v>1.540573416047849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.181530805564381</v>
@@ -22442,7 +22406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.529068022000187</v>
+        <v>1.517400535962542</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.313356573332426</v>
@@ -22531,7 +22495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.570769592583838</v>
+        <v>1.557259387723303</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.201854084426367</v>
@@ -22620,7 +22584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577799612581742</v>
+        <v>1.564024949308469</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.349802831463306</v>
@@ -22709,7 +22673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.570674200128553</v>
+        <v>1.559265523479635</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.336349043668522</v>
@@ -22798,7 +22762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.57323967716332</v>
+        <v>1.561916483279323</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.298953151248236</v>
@@ -22887,7 +22851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576436600152132</v>
+        <v>1.563857119602897</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.363607676773744</v>
@@ -22976,7 +22940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.576145475260595</v>
+        <v>1.566395811208513</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.302123008284445</v>
@@ -23262,7 +23226,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.543860889383595</v>
+        <v>1.535868658590623</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.504837241469974</v>
@@ -23351,7 +23315,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.569525732453207</v>
+        <v>1.557612252828501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.304762731838879</v>
@@ -23440,7 +23404,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.57017528710652</v>
+        <v>1.561493418941992</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.510649566547682</v>
@@ -23529,7 +23493,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.59615331383728</v>
+        <v>1.588190530246934</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.191808435641852</v>
@@ -23618,7 +23582,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.616520999688555</v>
+        <v>1.602638676563777</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.596576447818788</v>
@@ -23707,7 +23671,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.662457992621197</v>
+        <v>1.641322337314019</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.681913931229228</v>
@@ -23796,7 +23760,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.668726992783751</v>
+        <v>1.646153438707586</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.978665473344483</v>
@@ -23885,7 +23849,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.656190680949655</v>
+        <v>1.633422421631039</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.405209746957536</v>
@@ -23974,7 +23938,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.653106090366218</v>
+        <v>1.635787030847814</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.303513497411041</v>
@@ -24063,7 +24027,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657183462571921</v>
+        <v>1.638768141016163</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.348020586388852</v>
@@ -24152,7 +24116,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.666657040801619</v>
+        <v>1.648639659393083</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.264246971357492</v>
@@ -24241,7 +24205,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652527148234341</v>
+        <v>1.630144693311353</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.264130515576777</v>
@@ -24330,7 +24294,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.652191685972564</v>
+        <v>1.629883753060112</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.364426483593405</v>
@@ -24419,7 +24383,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646922948395251</v>
+        <v>1.626397476985733</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.342982030939162</v>
@@ -24508,7 +24472,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.666231024352335</v>
+        <v>1.644479562584031</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.400811299467056</v>
@@ -24597,7 +24561,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.677013827213649</v>
+        <v>1.654991845794954</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.369180377057177</v>
@@ -24686,7 +24650,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64860173481578</v>
+        <v>1.627149098039828</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.178758173650039</v>
@@ -24775,7 +24739,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666878178000855</v>
+        <v>1.640580642404612</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.334291513579443</v>
@@ -24864,7 +24828,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.652648259236902</v>
+        <v>1.628481558287629</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.293939648261266</v>
@@ -24953,7 +24917,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.657413225259734</v>
+        <v>1.631360551746683</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.297644005665922</v>
@@ -25042,7 +25006,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.606743051281197</v>
+        <v>1.588487893022339</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.344889271537173</v>
@@ -25131,7 +25095,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.602787641808171</v>
+        <v>1.582109735160967</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.381864258565082</v>
@@ -25220,7 +25184,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602289192015936</v>
+        <v>1.580422262877232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.366278513983502</v>
@@ -25309,7 +25273,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.604793184925927</v>
+        <v>1.580488772760634</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.386571671765818</v>
@@ -25398,7 +25362,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601066387603433</v>
+        <v>1.580278621253881</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.446889275634371</v>
@@ -25487,7 +25451,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.604475938560671</v>
+        <v>1.581916761943771</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.409112376186247</v>
@@ -25576,7 +25540,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.597062468208372</v>
+        <v>1.574517756014032</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.387974768561699</v>
@@ -25665,7 +25629,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.602742126998115</v>
+        <v>1.581724873480752</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.455532506848018</v>
@@ -25754,7 +25718,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601608393897567</v>
+        <v>1.579324748765339</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.397176236105109</v>
@@ -25843,7 +25807,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608223136183493</v>
+        <v>1.580176037024012</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.495357939618633</v>
@@ -25932,7 +25896,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614678589303516</v>
+        <v>1.584503728068983</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.527711488857107</v>
@@ -26021,7 +25985,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.637405202071952</v>
+        <v>1.604790108168539</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.469578500369524</v>
@@ -26110,7 +26074,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638287876596525</v>
+        <v>1.606741971966045</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.485534410342825</v>
@@ -26199,7 +26163,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650530944300879</v>
+        <v>1.615330185166516</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.508543589199763</v>
@@ -26288,7 +26252,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.644922230361711</v>
+        <v>1.608355814178725</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.44412085682191</v>
@@ -26377,7 +26341,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681069487044375</v>
+        <v>1.640138453989443</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.14420771986053</v>
@@ -26466,7 +26430,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.684549688334145</v>
+        <v>1.647410275887865</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.727707510586617</v>
@@ -26555,7 +26519,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.692523973393452</v>
+        <v>1.652863959360191</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.223195076053497</v>
@@ -26644,7 +26608,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.694752851690229</v>
+        <v>1.658163693053736</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.106864749262824</v>
@@ -26733,7 +26697,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.69275121559092</v>
+        <v>1.656983010895434</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.276515791521692</v>
@@ -26822,7 +26786,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.696807988128842</v>
+        <v>1.657339262180133</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.860033053978722</v>
@@ -26911,7 +26875,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.696270498903275</v>
+        <v>1.656137501669608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.256962337877071</v>
@@ -27000,7 +26964,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687846761765783</v>
+        <v>1.646659818049309</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.087210302389609</v>
@@ -27089,7 +27053,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.69092244646592</v>
+        <v>1.6519662385967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.738316965324666</v>
@@ -27178,7 +27142,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.689910702534875</v>
+        <v>1.657196839424509</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.781507152675039</v>
@@ -27267,7 +27231,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.685376229345488</v>
+        <v>1.655405449575934</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.118928935211156</v>
@@ -27356,7 +27320,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681435713081736</v>
+        <v>1.65253960215343</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.977143108849517</v>
@@ -27445,7 +27409,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.683646999793126</v>
+        <v>1.655596033520997</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.94329146455316</v>
@@ -27534,7 +27498,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.677486743064076</v>
+        <v>1.651609012942293</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.161956560754598</v>
@@ -27820,7 +27784,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.337774458836363</v>
+        <v>1.329882544180588</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.32222893882027</v>
@@ -27909,7 +27873,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.354250673385558</v>
+        <v>1.344151915277348</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.335326689125487</v>
@@ -27998,7 +27962,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.388413540326877</v>
+        <v>1.381429640932887</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.504544683828746</v>
@@ -28087,7 +28051,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.401453353243878</v>
+        <v>1.394897687450531</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.530590803897972</v>
@@ -28176,7 +28140,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.400009174072114</v>
+        <v>1.395575880562522</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.739689546365603</v>
@@ -28265,7 +28229,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.398240776480802</v>
+        <v>1.397393503151668</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.860265551615217</v>
@@ -28354,7 +28318,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393811292258085</v>
+        <v>1.396116621163477</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.878959088493823</v>
@@ -28443,7 +28407,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.387461092372825</v>
+        <v>1.385828886998423</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.739799982645581</v>
@@ -28532,7 +28496,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.375960362174702</v>
+        <v>1.375441227069658</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.838263457196719</v>
@@ -28621,7 +28585,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374013511807271</v>
+        <v>1.374225586263078</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.520977743030203</v>
@@ -28710,7 +28674,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.38587897842198</v>
+        <v>1.384602195926279</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.784429594096611</v>
@@ -28799,7 +28763,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.387388068753211</v>
+        <v>1.389124835697625</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.734412296588181</v>
@@ -28888,7 +28852,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.389638750052564</v>
+        <v>1.391787964180345</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.717455086740059</v>
@@ -28977,7 +28941,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.399778049509762</v>
+        <v>1.395365311982103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.873767587983606</v>
@@ -29066,7 +29030,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.389097614598067</v>
+        <v>1.394753472046761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.755011764238732</v>
@@ -29155,7 +29119,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.396651380912964</v>
+        <v>1.403558458482739</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.910559978648519</v>
@@ -29244,7 +29208,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.387639378540778</v>
+        <v>1.390545590762159</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.501307322661593</v>
@@ -29333,7 +29297,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.382402919133963</v>
+        <v>1.38781344545254</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.817492723558518</v>
@@ -29422,7 +29386,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.392511806740415</v>
+        <v>1.399734509414371</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.770124763884727</v>
@@ -29511,7 +29475,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.402856972568984</v>
+        <v>1.410120542242445</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.574194088093266</v>
@@ -29600,7 +29564,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.387013163110316</v>
+        <v>1.394033480418646</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.845303202130776</v>
@@ -29689,7 +29653,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.391929427729895</v>
+        <v>1.399208752028182</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.432731668588565</v>
@@ -29778,7 +29742,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.396771008220736</v>
+        <v>1.407472040289544</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.742649613552921</v>
@@ -29867,7 +29831,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.393458791009112</v>
+        <v>1.401529339498739</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.790329839200304</v>
@@ -29956,7 +29920,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.390665541421747</v>
+        <v>1.399756632946541</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.664635830450047</v>
@@ -30045,7 +30009,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.394520245247832</v>
+        <v>1.397874056874833</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.727432690073381</v>
@@ -30134,7 +30098,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.378067252966255</v>
+        <v>1.379562685823503</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.765636786699451</v>
@@ -30223,7 +30187,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.375872169865591</v>
+        <v>1.378914556944775</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.621704676049092</v>
@@ -30312,7 +30276,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.386425512751252</v>
+        <v>1.392822085297314</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.697702225075993</v>
@@ -30401,7 +30365,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.389663449148203</v>
+        <v>1.394643453373815</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.649249115298379</v>
@@ -30490,7 +30454,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.396903830008998</v>
+        <v>1.404127069426415</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.791858496011833</v>
@@ -30579,7 +30543,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.426253948399345</v>
+        <v>1.436603500616419</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.782626402828698</v>
@@ -30668,7 +30632,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.431164681311301</v>
+        <v>1.43939329704277</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.583940455884288</v>
@@ -30757,7 +30721,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.42507457543986</v>
+        <v>1.439834970007675</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.737315736602964</v>
@@ -30846,7 +30810,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.422842376809315</v>
+        <v>1.434659343472747</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.568887288062135</v>
@@ -30935,7 +30899,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.438769604070435</v>
+        <v>1.447071940879833</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.980938637669448</v>
@@ -31024,7 +30988,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.454004662588289</v>
+        <v>1.46699334934924</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.880629003918625</v>
@@ -31113,7 +31077,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.475708347051079</v>
+        <v>1.491267967723087</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.963821870039623</v>
@@ -31202,7 +31166,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.496452988030289</v>
+        <v>1.515222704396281</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.889523190797914</v>
@@ -31291,7 +31255,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50475090432783</v>
+        <v>1.525137331536816</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.060170425085649</v>
@@ -31380,7 +31344,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.520839301521359</v>
+        <v>1.54042009400551</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.877909321437095</v>
@@ -31469,7 +31433,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.533711232095031</v>
+        <v>1.557833620314206</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.944729209462432</v>
@@ -31558,7 +31522,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.53142358253574</v>
+        <v>1.557240595120607</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.004691664786522</v>
@@ -31647,7 +31611,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52985612640168</v>
+        <v>1.55521493175961</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.099692817207579</v>
@@ -31736,7 +31700,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.533734120820617</v>
+        <v>1.557406775468252</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.012091050203948</v>
@@ -31825,7 +31789,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.511454358018683</v>
+        <v>1.534963259124316</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.077237924156947</v>
@@ -31914,7 +31878,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.50171179226134</v>
+        <v>1.525162136078427</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.030689113957735</v>
@@ -32003,7 +31967,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.503345537792679</v>
+        <v>1.521799143740526</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.872258460657432</v>
@@ -32092,7 +32056,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.510311374962002</v>
+        <v>1.529707464808634</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.954530352590467</v>
